--- a/shoulder_test/exeloutput/ActionLog.xlsx
+++ b/shoulder_test/exeloutput/ActionLog.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:R3"/>
+  <dimension ref="A1:R7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -586,7 +586,7 @@
         <v>0</v>
       </c>
       <c r="B3" t="n">
-        <v>22</v>
+        <v>0</v>
       </c>
       <c r="C3" t="n">
         <v>0</v>
@@ -595,7 +595,7 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>22</v>
+        <v>0</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -613,7 +613,7 @@
         <v>0</v>
       </c>
       <c r="K3" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L3" t="n">
         <v>0</v>
@@ -622,7 +622,7 @@
         <v>0</v>
       </c>
       <c r="N3" t="n">
-        <v>1987</v>
+        <v>0</v>
       </c>
       <c r="O3" t="n">
         <v>0</v>
@@ -631,9 +631,233 @@
         <v>0</v>
       </c>
       <c r="Q3" t="n">
-        <v>1987</v>
+        <v>0</v>
       </c>
       <c r="R3" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="n">
+        <v>0</v>
+      </c>
+      <c r="B4" t="n">
+        <v>0</v>
+      </c>
+      <c r="C4" t="n">
+        <v>0</v>
+      </c>
+      <c r="D4" t="n">
+        <v>0</v>
+      </c>
+      <c r="E4" t="n">
+        <v>0</v>
+      </c>
+      <c r="F4" t="n">
+        <v>0</v>
+      </c>
+      <c r="G4" t="n">
+        <v>0</v>
+      </c>
+      <c r="H4" t="n">
+        <v>0</v>
+      </c>
+      <c r="I4" t="n">
+        <v>0</v>
+      </c>
+      <c r="J4" t="n">
+        <v>0</v>
+      </c>
+      <c r="K4" t="n">
+        <v>0</v>
+      </c>
+      <c r="L4" t="n">
+        <v>0</v>
+      </c>
+      <c r="M4" t="n">
+        <v>0</v>
+      </c>
+      <c r="N4" t="n">
+        <v>0</v>
+      </c>
+      <c r="O4" t="n">
+        <v>0</v>
+      </c>
+      <c r="P4" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q4" t="n">
+        <v>0</v>
+      </c>
+      <c r="R4" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="n">
+        <v>0</v>
+      </c>
+      <c r="B5" t="n">
+        <v>0</v>
+      </c>
+      <c r="C5" t="n">
+        <v>0</v>
+      </c>
+      <c r="D5" t="n">
+        <v>0</v>
+      </c>
+      <c r="E5" t="n">
+        <v>0</v>
+      </c>
+      <c r="F5" t="n">
+        <v>0</v>
+      </c>
+      <c r="G5" t="n">
+        <v>0</v>
+      </c>
+      <c r="H5" t="n">
+        <v>0</v>
+      </c>
+      <c r="I5" t="n">
+        <v>0</v>
+      </c>
+      <c r="J5" t="n">
+        <v>0</v>
+      </c>
+      <c r="K5" t="n">
+        <v>0</v>
+      </c>
+      <c r="L5" t="n">
+        <v>0</v>
+      </c>
+      <c r="M5" t="n">
+        <v>0</v>
+      </c>
+      <c r="N5" t="n">
+        <v>0</v>
+      </c>
+      <c r="O5" t="n">
+        <v>0</v>
+      </c>
+      <c r="P5" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q5" t="n">
+        <v>0</v>
+      </c>
+      <c r="R5" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="n">
+        <v>0</v>
+      </c>
+      <c r="B6" t="n">
+        <v>0</v>
+      </c>
+      <c r="C6" t="n">
+        <v>0</v>
+      </c>
+      <c r="D6" t="n">
+        <v>0</v>
+      </c>
+      <c r="E6" t="n">
+        <v>0</v>
+      </c>
+      <c r="F6" t="n">
+        <v>0</v>
+      </c>
+      <c r="G6" t="n">
+        <v>0</v>
+      </c>
+      <c r="H6" t="n">
+        <v>0</v>
+      </c>
+      <c r="I6" t="n">
+        <v>0</v>
+      </c>
+      <c r="J6" t="n">
+        <v>0</v>
+      </c>
+      <c r="K6" t="n">
+        <v>0</v>
+      </c>
+      <c r="L6" t="n">
+        <v>0</v>
+      </c>
+      <c r="M6" t="n">
+        <v>0</v>
+      </c>
+      <c r="N6" t="n">
+        <v>0</v>
+      </c>
+      <c r="O6" t="n">
+        <v>0</v>
+      </c>
+      <c r="P6" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q6" t="n">
+        <v>0</v>
+      </c>
+      <c r="R6" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="n">
+        <v>0</v>
+      </c>
+      <c r="B7" t="n">
+        <v>0</v>
+      </c>
+      <c r="C7" t="n">
+        <v>0</v>
+      </c>
+      <c r="D7" t="n">
+        <v>0</v>
+      </c>
+      <c r="E7" t="n">
+        <v>0</v>
+      </c>
+      <c r="F7" t="n">
+        <v>0</v>
+      </c>
+      <c r="G7" t="n">
+        <v>0</v>
+      </c>
+      <c r="H7" t="n">
+        <v>0</v>
+      </c>
+      <c r="I7" t="n">
+        <v>0</v>
+      </c>
+      <c r="J7" t="n">
+        <v>0</v>
+      </c>
+      <c r="K7" t="n">
+        <v>0</v>
+      </c>
+      <c r="L7" t="n">
+        <v>0</v>
+      </c>
+      <c r="M7" t="n">
+        <v>0</v>
+      </c>
+      <c r="N7" t="n">
+        <v>0</v>
+      </c>
+      <c r="O7" t="n">
+        <v>0</v>
+      </c>
+      <c r="P7" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q7" t="n">
+        <v>0</v>
+      </c>
+      <c r="R7" t="n">
         <v>0</v>
       </c>
     </row>
